--- a/training_data/2008/basic_hitting.xlsx
+++ b/training_data/2008/basic_hitting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex_1/Desktop/MVP-Predictor/training_data/2008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA66AD4C-A72A-8546-940D-FB640C08AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C077E-661D-2A4E-B4A7-FE15DEDED2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3BCB2FF3-02B3-3341-AD11-7A03D9D714BF}"/>
+    <workbookView xWindow="3540" yWindow="3840" windowWidth="28040" windowHeight="17440" xr2:uid="{3BCB2FF3-02B3-3341-AD11-7A03D9D714BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4076,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA69294-7681-1040-81EB-A43B7488786E}">
   <dimension ref="A4:J1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1329" workbookViewId="0">
-      <selection activeCell="B1354" sqref="B1354:J1354"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
